--- a/PDF to EXCEL/Project/Output2/AllTables/committee.xlsx
+++ b/PDF to EXCEL/Project/Output2/AllTables/committee.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dr. M. M. A. Hashem</t>
+          <t>Dr. Sk. Md. Masudul Ahsan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Professor</t>
+          <t>Professor and Head</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,14 +471,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Chairman</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dr. K. M. Azharul Hasan</t>
+          <t>Dr. M. M. A. Hashem</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,7 +505,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dr. Kazi Md. Rokibul Alam</t>
+          <t>Dr. K. M. Azharul Hasan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dr. Pintu Chandra Shill</t>
+          <t>Dr. Kazi Md. Rokibul Alam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -559,7 +559,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dr. Subrata Talapatra</t>
+          <t>Dr. Pintu Chandra Shill</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dept. of IEM</t>
+          <t>Dept. of CSE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,14 +579,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ext. Member</t>
+          <t>Member</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dr. M. M. A. Hashem</t>
+          <t>Dr. Subrata Talapatra</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dept. of CSE</t>
+          <t>Dept. of IEM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -605,114 +605,6 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dr. K. M. Azharul Hasan</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Dept. of CSE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KUET</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dr. Kazi Md. Rokibul Alam</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Dept. of CSE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KUET</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dr. Pintu Chandra Shill</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Dept. of CSE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>KUET</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dr. Subrata Talapatra</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Dept. of IEM</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>KUET</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>Ext. Member</t>
         </is>
